--- a/input/1.xlsx
+++ b/input/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083">
   <si>
     <t>2中文</t>
   </si>
@@ -10753,7 +10753,7 @@
     <t>subsidy.blueCardNo</t>
   </si>
   <si>
-    <t>外地僱員身份認別證（藍卡）號碼</t>
+    <t>項目角色</t>
   </si>
   <si>
     <t>Número do Título de Identificação de Trabalhador Não Residente (Cartão Azul)</t>
@@ -12257,6 +12257,12 @@
   </si>
   <si>
     <t>{value}:This value must be filled in.</t>
+  </si>
+  <si>
+    <t>YYYY年MM月DD日</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
@@ -13227,10 +13233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F1114"/>
+  <dimension ref="A1:F1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B155" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="B1079" workbookViewId="0">
+      <selection activeCell="D1117" sqref="D1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
@@ -28834,6 +28840,17 @@
         <v>4080</v>
       </c>
     </row>
+    <row r="1115" spans="2:6">
+      <c r="B1115" t="s">
+        <v>4081</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>4082</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>4082</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/input/1.xlsx
+++ b/input/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096">
   <si>
     <t>2中文</t>
   </si>
@@ -12263,6 +12263,45 @@
   </si>
   <si>
     <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>FDCT-外地僱員身份認別證（藍卡）資料確認通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDCT - Notificação de Confirmação de Dados do Título de Identificação de Trabalhador Não Residente (Cartão Azul) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDCT - Confirmation Notice for the Information of the Non-resident Worker's Identification Card (Blue Card) </t>
+  </si>
+  <si>
+    <t>科學技術發展基金：閣下之外地僱員身份認別證（藍卡）資料已獲本基金確認，請重新登入系統以提交項目申請。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundo para o Desenvolvimento das Ciências e da Tecnologia (FDCT): Os seus dados do Título de Identificação de Trabalhador Não Residente (Cartão Azul)já foram confirmados pelo FDCT, por favor inicie novamente a sessão para submeter a sua candidatura. </t>
+  </si>
+  <si>
+    <t>The Science and Technology Development Fund (FDCT): The information of your Non-resident Worker's Identification Card (Blue Card) has been confirmed by the FDCT, please log in the system again to submit the project application.</t>
+  </si>
+  <si>
+    <t>FDCT-外地僱員身份認別證（藍卡）資料駁回通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDCT - Notificação de Indeferimento de Dados do Título de Identificação de Trabalhador Não Residente (Cartão Azul) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDCT -  Rejection Notice for Information of the Non-resident Worker's Identification Card (Blue Card) </t>
+  </si>
+  <si>
+    <t>科學技術發展基金：閣下之外地僱員身份認別證（藍卡）資料未獲本基金確認，請登入系統重新輸入有關資料。</t>
+  </si>
+  <si>
+    <t>Fundo para o Desenvolvimento das Ciências e da Tecnologia (FDCT): Os seus dados do Título de Identificação de Trabalhador Não Residente (Cartão Azul) não foram confirmados pelo FDCT, por favor inicie a sessão para preencher de novo os dados relevantes.</t>
+  </si>
+  <si>
+    <t>The Science and Technology Development Fund (FDCT): The information of your Non-resident Worker's Identification Card (Blue Card)  has been rejected by the FDCT, please log in the system to re-enter the relevant information.</t>
+  </si>
+  <si>
+    <t>外地僱員身份認別證（藍卡）號碼</t>
   </si>
 </sst>
 </file>
@@ -12275,7 +12314,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12300,14 +12339,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.7"/>
-      <color rgb="FF222222"/>
-      <name val="Lucida Grande"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12321,83 +12421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -12421,7 +12446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12435,15 +12460,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -12451,7 +12484,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12472,19 +12519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12496,7 +12531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12508,43 +12555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12562,30 +12579,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -12598,7 +12591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12610,7 +12609,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12622,31 +12675,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12657,48 +12704,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12719,10 +12724,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -12757,155 +12760,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12914,6 +12961,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13233,10 +13284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F1115"/>
+  <dimension ref="A1:F1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1079" workbookViewId="0">
-      <selection activeCell="D1117" sqref="D1117"/>
+    <sheetView tabSelected="1" topLeftCell="A1090" workbookViewId="0">
+      <selection activeCell="B1115" sqref="B1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
@@ -28818,18 +28869,24 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="1113" ht="13.6" spans="2:6">
+    <row r="1113" spans="1:6">
+      <c r="A1113" t="s">
+        <v>4072</v>
+      </c>
       <c r="B1113" t="s">
         <v>4075</v>
       </c>
-      <c r="E1113" s="3" t="s">
+      <c r="E1113" t="s">
         <v>4076</v>
       </c>
-      <c r="F1113" s="3" t="s">
+      <c r="F1113" t="s">
         <v>4077</v>
       </c>
     </row>
-    <row r="1114" spans="2:6">
+    <row r="1114" spans="1:6">
+      <c r="A1114" t="s">
+        <v>4072</v>
+      </c>
       <c r="B1114" t="s">
         <v>4078</v>
       </c>
@@ -28840,16 +28897,317 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="1115" spans="2:6">
+    <row r="1115" spans="1:6">
+      <c r="A1115" t="s">
+        <v>4072</v>
+      </c>
       <c r="B1115" t="s">
         <v>4081</v>
       </c>
+      <c r="C1115"/>
       <c r="E1115" t="s">
         <v>4082</v>
       </c>
       <c r="F1115" t="s">
         <v>4082</v>
       </c>
+    </row>
+    <row r="1116" ht="13.2" spans="1:6">
+      <c r="A1116" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1116" s="3" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C1116"/>
+      <c r="E1116" t="s">
+        <v>4084</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C1117"/>
+      <c r="E1117" t="s">
+        <v>4087</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="1118" ht="13.2" spans="1:6">
+      <c r="A1118" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1118" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C1118"/>
+      <c r="E1118" t="s">
+        <v>4090</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="1119" ht="13.2" spans="1:6">
+      <c r="A1119" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1119" s="5" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C1119"/>
+      <c r="E1119" t="s">
+        <v>4093</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1120" s="6" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C1120"/>
+      <c r="E1120" t="s">
+        <v>3580</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1121" s="6" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C1121"/>
+      <c r="E1121" t="s">
+        <v>3584</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6">
+      <c r="A1122" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1122" s="6" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C1122"/>
+      <c r="E1122" t="s">
+        <v>3588</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6">
+      <c r="A1123" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1123" s="6" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C1123"/>
+      <c r="E1123" t="s">
+        <v>3592</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6">
+      <c r="A1124" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1124" s="6" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C1124"/>
+      <c r="E1124" t="s">
+        <v>3596</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6">
+      <c r="A1125" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1125" s="6" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C1125"/>
+      <c r="E1125" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6">
+      <c r="A1126" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1126" s="6" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C1126"/>
+      <c r="E1126" t="s">
+        <v>3604</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6">
+      <c r="A1127" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1127" s="6" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C1127"/>
+      <c r="E1127" t="s">
+        <v>3608</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6">
+      <c r="A1128" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1128" s="6" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C1128"/>
+      <c r="E1128" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6">
+      <c r="A1129" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1129" s="6" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C1129"/>
+      <c r="E1129" t="s">
+        <v>3616</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6">
+      <c r="A1130" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1130" s="6" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C1130"/>
+      <c r="E1130" t="s">
+        <v>3620</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6">
+      <c r="A1131" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1131" s="6" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C1131"/>
+      <c r="E1131" t="s">
+        <v>4068</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6">
+      <c r="A1132" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1132" s="6" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C1132"/>
+      <c r="E1132" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6">
+      <c r="A1133" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1133" s="6" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C1133"/>
+      <c r="E1133" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:3">
+      <c r="B1134" s="7"/>
+      <c r="C1134" s="7"/>
+    </row>
+    <row r="1135" spans="2:3">
+      <c r="B1135" s="7"/>
+      <c r="C1135" s="7"/>
+    </row>
+    <row r="1136" spans="2:3">
+      <c r="B1136" s="7"/>
+      <c r="C1136" s="7"/>
+    </row>
+    <row r="1137" spans="2:3">
+      <c r="B1137" s="7"/>
+      <c r="C1137" s="7"/>
+    </row>
+    <row r="1138" spans="2:3">
+      <c r="B1138" s="7"/>
+      <c r="C1138" s="7"/>
+    </row>
+    <row r="1139" spans="2:3">
+      <c r="B1139" s="7"/>
+      <c r="C1139" s="7"/>
+    </row>
+    <row r="1140" spans="3:3">
+      <c r="C1140" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
